--- a/input/data_.xlsx
+++ b/input/data_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Scraper_SUNEDU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66394243-12A6-4501-A987-CF04FF49C991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160CA0EA-8146-4228-B01D-6B477917D46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="780" windowWidth="11340" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>dni</t>
+  </si>
+  <si>
+    <t>07885701</t>
+  </si>
+  <si>
+    <t>32220818</t>
+  </si>
+  <si>
+    <t>71849919</t>
   </si>
 </sst>
 </file>
@@ -86,12 +95,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,57 +382,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>46432891</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>70313538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>71696567</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>72675329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>32220818</v>
-      </c>
-    </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>32224811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A7" s="2">
         <v>75947795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>72653667</v>
       </c>
     </row>
   </sheetData>
